--- a/房子/新建 Excel 2007.xlsx
+++ b/房子/新建 Excel 2007.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="学区" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="研究" sheetId="1" r:id="rId1"/>
+    <sheet name="学区信息" sheetId="2" r:id="rId2"/>
+    <sheet name="政策" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
   <si>
     <t>舒适度</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -65,6 +65,44 @@
   </si>
   <si>
     <t>房2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>房3</t>
+  </si>
+  <si>
+    <t>房4</t>
+  </si>
+  <si>
+    <t>世纪大道</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>价格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>看房印象</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一梯队</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第二梯队</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>满五</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>唯一</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>税</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -88,7 +126,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -131,8 +169,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="15">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -186,21 +230,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -336,63 +365,182 @@
       </right>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -688,189 +836,280 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:K12"/>
+  <dimension ref="B1:M16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="6" max="6" width="10.75" customWidth="1"/>
-    <col min="7" max="7" width="10.375" customWidth="1"/>
-    <col min="8" max="8" width="12.25" customWidth="1"/>
-    <col min="9" max="9" width="11.125" customWidth="1"/>
-    <col min="11" max="11" width="10.875" customWidth="1"/>
+    <col min="6" max="6" width="10.73046875" customWidth="1"/>
+    <col min="7" max="7" width="10.3984375" customWidth="1"/>
+    <col min="8" max="8" width="12.265625" customWidth="1"/>
+    <col min="9" max="9" width="11.1328125" customWidth="1"/>
+    <col min="11" max="11" width="10.86328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="14.25" thickBot="1"/>
-    <row r="2" spans="2:11">
-      <c r="D2" s="5" t="s">
+    <row r="1" spans="2:13" ht="13.9" thickBot="1"/>
+    <row r="2" spans="2:13">
+      <c r="D2" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="7"/>
-    </row>
-    <row r="3" spans="2:11">
-      <c r="D3" s="8" t="s">
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="M2" s="40" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="2:13">
+      <c r="D3" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="10" t="s">
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="10"/>
-      <c r="K3" s="11"/>
-    </row>
-    <row r="4" spans="2:11">
-      <c r="D4" s="14" t="s">
+      <c r="J3" s="16"/>
+      <c r="K3" s="35"/>
+      <c r="L3" s="38"/>
+      <c r="M3" s="41"/>
+    </row>
+    <row r="4" spans="2:13">
+      <c r="D4" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="15" t="s">
+      <c r="E4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="15" t="s">
+      <c r="F4" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="15" t="s">
+      <c r="G4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="15" t="s">
+      <c r="H4" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="16" t="s">
+      <c r="I4" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="J4" s="16" t="s">
+      <c r="J4" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="K4" s="17" t="s">
+      <c r="K4" s="36" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="2:11">
-      <c r="B5" s="22" t="s">
+      <c r="L4" s="39"/>
+      <c r="M4" s="42"/>
+    </row>
+    <row r="5" spans="2:13">
+      <c r="B5" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="18"/>
+      <c r="D5" s="10"/>
       <c r="E5" s="3"/>
       <c r="F5" s="1"/>
       <c r="G5" s="3"/>
       <c r="H5" s="1"/>
       <c r="I5" s="3"/>
       <c r="J5" s="1"/>
-      <c r="K5" s="12"/>
-    </row>
-    <row r="6" spans="2:11">
-      <c r="B6" s="23"/>
-      <c r="C6" s="20" t="s">
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+    </row>
+    <row r="6" spans="2:13">
+      <c r="B6" s="20"/>
+      <c r="C6" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="18"/>
+      <c r="D6" s="10"/>
       <c r="E6" s="3"/>
       <c r="F6" s="1"/>
       <c r="G6" s="3"/>
       <c r="H6" s="1"/>
       <c r="I6" s="3"/>
       <c r="J6" s="1"/>
-      <c r="K6" s="12"/>
-    </row>
-    <row r="7" spans="2:11">
-      <c r="B7" s="24" t="s">
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+    </row>
+    <row r="7" spans="2:13">
+      <c r="B7" s="24"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="27"/>
+      <c r="I7" s="26"/>
+      <c r="J7" s="27"/>
+      <c r="K7" s="28"/>
+      <c r="L7" s="28"/>
+      <c r="M7" s="28"/>
+    </row>
+    <row r="8" spans="2:13">
+      <c r="B8" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="20" t="s">
+      <c r="C8" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="18"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="12"/>
-    </row>
-    <row r="8" spans="2:11">
-      <c r="B8" s="25"/>
-      <c r="C8" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="18"/>
+      <c r="D8" s="10"/>
       <c r="E8" s="3"/>
       <c r="F8" s="1"/>
       <c r="G8" s="3"/>
       <c r="H8" s="1"/>
       <c r="I8" s="3"/>
       <c r="J8" s="1"/>
-      <c r="K8" s="12"/>
-    </row>
-    <row r="9" spans="2:11">
-      <c r="B9" s="25"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="18"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+    </row>
+    <row r="9" spans="2:13">
+      <c r="B9" s="22"/>
+      <c r="C9" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="10"/>
       <c r="E9" s="3"/>
       <c r="F9" s="1"/>
       <c r="G9" s="3"/>
       <c r="H9" s="1"/>
       <c r="I9" s="3"/>
       <c r="J9" s="1"/>
-      <c r="K9" s="12"/>
-    </row>
-    <row r="10" spans="2:11">
-      <c r="B10" s="25"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="18"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+    </row>
+    <row r="10" spans="2:13">
+      <c r="B10" s="22"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="10"/>
       <c r="E10" s="3"/>
       <c r="F10" s="1"/>
       <c r="G10" s="3"/>
       <c r="H10" s="1"/>
       <c r="I10" s="3"/>
       <c r="J10" s="1"/>
-      <c r="K10" s="12"/>
-    </row>
-    <row r="11" spans="2:11">
-      <c r="B11" s="25"/>
-      <c r="C11" s="20"/>
-      <c r="D11" s="18"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+    </row>
+    <row r="11" spans="2:13">
+      <c r="B11" s="22"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="10"/>
       <c r="E11" s="3"/>
       <c r="F11" s="1"/>
       <c r="G11" s="3"/>
       <c r="H11" s="1"/>
       <c r="I11" s="3"/>
       <c r="J11" s="1"/>
-      <c r="K11" s="12"/>
-    </row>
-    <row r="12" spans="2:11" ht="14.25" thickBot="1">
-      <c r="B12" s="26"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="13"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+    </row>
+    <row r="12" spans="2:13">
+      <c r="B12" s="22"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+    </row>
+    <row r="13" spans="2:13" ht="13.9" thickBot="1">
+      <c r="B13" s="23"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+    </row>
+    <row r="14" spans="2:13">
+      <c r="B14" s="29"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="31"/>
+      <c r="H14" s="32"/>
+      <c r="I14" s="31"/>
+      <c r="J14" s="32"/>
+      <c r="K14" s="33"/>
+      <c r="L14" s="33"/>
+      <c r="M14" s="33"/>
+    </row>
+    <row r="15" spans="2:13">
+      <c r="B15" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="10"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+    </row>
+    <row r="16" spans="2:13">
+      <c r="B16" s="22"/>
+      <c r="C16" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" s="10"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="8">
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="L2:L4"/>
+    <mergeCell ref="M2:M4"/>
     <mergeCell ref="D3:H3"/>
     <mergeCell ref="I3:K3"/>
     <mergeCell ref="D2:K2"/>
     <mergeCell ref="B5:B6"/>
-    <mergeCell ref="B7:B12"/>
+    <mergeCell ref="B8:B13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -880,12 +1119,25 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="B3:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetData>
+    <row r="3" spans="2:2">
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2">
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -893,12 +1145,30 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="B3:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetData>
+    <row r="3" spans="2:2">
+      <c r="B3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2">
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2">
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
